--- a/ITP/ITP#33_解答.xlsx
+++ b/ITP/ITP#33_解答.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EB8C5CD-B8D3-4FE2-8A6D-6ED40C6FB1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,11 +492,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E30"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -541,7 +540,9 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -553,7 +554,9 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
@@ -565,7 +568,9 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -583,7 +588,9 @@
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
@@ -595,7 +602,9 @@
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
@@ -607,7 +616,9 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -621,7 +632,9 @@
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -633,7 +646,9 @@
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
@@ -645,7 +660,9 @@
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
@@ -657,7 +674,9 @@
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
@@ -675,7 +694,9 @@
       <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
@@ -687,7 +708,9 @@
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
@@ -699,7 +722,9 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -711,7 +736,9 @@
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -723,7 +750,9 @@
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
@@ -737,7 +766,9 @@
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
@@ -749,7 +780,9 @@
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
@@ -761,7 +794,9 @@
       <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
@@ -779,7 +814,9 @@
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
@@ -791,7 +828,9 @@
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
@@ -803,7 +842,9 @@
       <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
@@ -815,7 +856,9 @@
       <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
@@ -829,7 +872,9 @@
       <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
@@ -841,7 +886,9 @@
       <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -853,7 +900,9 @@
       <c r="E26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
@@ -865,7 +914,9 @@
       <c r="E27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
@@ -883,7 +934,9 @@
       <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
@@ -895,7 +948,9 @@
       <c r="E29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
@@ -1155,7 +1210,7 @@
       </c>
       <c r="F61">
         <f>SUM(F2:F60)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -1164,7 +1219,7 @@
       </c>
       <c r="D63" s="2">
         <f>F61/D61</f>
-        <v>0</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
